--- a/Fed rate(2005-2008).xlsx
+++ b/Fed rate(2005-2008).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancycheng/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancycheng/news-article-classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,60 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>2005: GDP = 3.3%, Unemployment = 6%, Inflation = 3.4%</t>
   </si>
   <si>
-    <t>Borrowers could not afford mortgages when rates reset in 3rd year. </t>
-  </si>
-  <si>
     <t>Fed Chair Ben Bernanke (February 2006 - January 2014)</t>
   </si>
   <si>
     <t>2006: GDP = 2.7%, Unemployment = 6%, Inflation = 2.5% </t>
   </si>
   <si>
-    <t>Raised to cool housing market bubble. More homeowners default.</t>
-  </si>
-  <si>
     <t>2007: GDP = 1.8%, Unemployment = 6%, Inflation = 4.1%</t>
   </si>
   <si>
     <t>Sep 18</t>
   </si>
   <si>
-    <t>Home sales fell.</t>
-  </si>
-  <si>
     <t>Dec 11</t>
   </si>
   <si>
-    <t>LIBOR rose.</t>
-  </si>
-  <si>
     <t>2008: GDP = -0.3%, Unemployment = 6%, Inflation = 0.1%</t>
   </si>
   <si>
-    <t>Tax rebate.</t>
-  </si>
-  <si>
-    <t>Bear Stearns bailout.</t>
-  </si>
-  <si>
     <t>Apr 30</t>
   </si>
   <si>
-    <t>Lehman fails. Bank bailout approved. AIGbailout.</t>
-  </si>
-  <si>
     <t>Oct 8</t>
   </si>
   <si>
     <t>Oct 29</t>
-  </si>
-  <si>
-    <t>Effectively zero. The lowest fed funds rate possible.</t>
   </si>
   <si>
     <t>Dec-12 </t>
@@ -107,6 +83,53 @@
   </si>
   <si>
     <t>resource:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1998: GDP = 4.5%, Unemployment = 6%, Inflation = 1.6%</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>1999: GDP = 4.7%, Unemployment = 6%, Inflation = 2.7%</t>
+  </si>
+  <si>
+    <t>2000: GDP = 4.1%, Unemployment = 6%, Inflation = 3.4%</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2001: GDP = 1.0%, Unemployment = 6%, Inflation = 1.6% </t>
+  </si>
+  <si>
+    <t>2002: GDP = 1.8%, Unemployment = 6%, Inflation = 2.4%</t>
+  </si>
+  <si>
+    <t>2003: GDP = 2.8%, Unemployment = 6%, Inflation = 1.9%</t>
+  </si>
+  <si>
+    <t>2004: GDP = 3.8%, Unemployment = 6%, Inflation = 3.3%</t>
+  </si>
+  <si>
+    <t>testing set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mmm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,8 +178,36 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF00B050"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,11 +240,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -195,6 +251,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -473,381 +556,867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+        <v>20</v>
+      </c>
+      <c r="C1"/>
+      <c r="F1" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>43007</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>43023</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>42916</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>42971</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>43055</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>42768</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B10" s="2">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>42815</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>42738</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>42766</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>42814</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>42843</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>42870</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>42913</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>42968</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>42995</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>43010</v>
+      </c>
+      <c r="B22" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>42816</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>42858</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>43045</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>43080</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>43045</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>42911</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>42916</v>
       </c>
-      <c r="B5" s="2">
-        <v>3.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>42956</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>42998</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>43040</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>43082</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>42766</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>42822</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4.7500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>42865</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>42915</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>42955</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>42998</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>43033</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>42766</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>42815</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>42914</v>
-      </c>
-      <c r="B24" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>42954</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>42757</v>
-      </c>
       <c r="B30" s="2">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>22</v>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>42957</v>
       </c>
       <c r="B31" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="22" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>42812</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>42999</v>
       </c>
       <c r="B32" s="2">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>13</v>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>43049</v>
       </c>
       <c r="B33" s="2">
         <v>0.02</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>43083</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" ht="57" x14ac:dyDescent="0.7">
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>42768</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>42816</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2.75E-2</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>42858</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>42956</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>42998</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>43040</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43082</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>42766</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>42822</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>42865</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>42915</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>42955</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>42998</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>43033</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>42766</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>42815</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>42914</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>42954</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>42757</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="B66" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>42812</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
         <v>42911</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B69" s="2">
         <v>0.02</v>
       </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="C69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2">
         <v>0.02</v>
       </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="C70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
         <v>42994</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B71" s="2">
         <v>0.02</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="C71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>43085</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>43085</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:F34"/>
+    <mergeCell ref="F36:F74"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="C28" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="A45" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>